--- a/notebooks_report/Summary_2025.xlsx
+++ b/notebooks_report/Summary_2025.xlsx
@@ -1,41 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_File\pandas-101\notebooks_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C44B10-1262-4184-8C84-DF114CAC1A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly_Count" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Status_Count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dept_Count" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pivot_Job" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Pivot_Status" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Monthly_Count" sheetId="1" r:id="rId1"/>
+    <sheet name="Status_Count" sheetId="2" r:id="rId2"/>
+    <sheet name="Dept_Count" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot_Job" sheetId="4" r:id="rId4"/>
+    <sheet name="Pivot_Status" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+  <si>
+    <t>year_month</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>2025-11</t>
+  </si>
+  <si>
+    <t>2025-12</t>
+  </si>
+  <si>
+    <t>Status 状态</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,146 +472,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year_month</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2025-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>150</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>135</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2025-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>126</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>133</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>133</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>126</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>144</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>135</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>139</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>138</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>142</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>134</v>
       </c>
     </row>
@@ -573,56 +594,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Status 状态</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>537</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>571</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>527</v>
       </c>
     </row>
@@ -632,76 +642,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dept</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
         <v>336</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
         <v>332</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>HQ</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
         <v>299</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>MKT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>363</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
         <v>305</v>
       </c>
     </row>
@@ -711,353 +703,314 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year_month</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Access</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CCTV</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Printer</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Software</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2025-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>27</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>29</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2025-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>23</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>23</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>23</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>22</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>26</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>24</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>28</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>31</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>19</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>29</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>19</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>23</v>
       </c>
     </row>
@@ -1067,230 +1020,197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year_month</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2025-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>57</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>49</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>44</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>42</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>51</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>42</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2025-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>42</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2025-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>46</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2025-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>46</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>39</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>45</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>43</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>47</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>41</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>53</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>48</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>42</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>53</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>47</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>42</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>35</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>57</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>42</v>
       </c>
     </row>
